--- a/data1/data.xlsx
+++ b/data1/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="13340"/>
+    <workbookView windowWidth="29100" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <t>销售额</t>
   </si>
   <si>
-    <t>基金产品名称</t>
+    <t>基金名称</t>
   </si>
   <si>
     <t>数据日期</t>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
